--- a/data/trans_camb/P16_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>17,06</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,64</t>
+          <t>15,67</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,4</t>
+          <t>22,06</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,86</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,15</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>8,52</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>20,39</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,7</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4,3</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>9,08</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>12,04</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>22,2</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 8,63</t>
+          <t>-4,84; 15,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 14,53</t>
+          <t>7,64; 26,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 14,18</t>
+          <t>6,66; 24,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,28; 27,14</t>
+          <t>8,21; 34,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 11,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 8,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 18,5</t>
+          <t>-8,75; 15,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 17,94</t>
+          <t>-9,24; 12,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 7,09</t>
+          <t>-3,12; 18,42</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 8,79</t>
+          <t>8,38; 32,68</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,79; 14,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,07; 19,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-5,23; 12,56</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,41; 16,02</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>5,06; 19,35</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>11,98; 31,82</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-7,89%</t>
+          <t>42,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>23,63%</t>
+          <t>140,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>129,31%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>78,74%</t>
+          <t>182,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>28,94%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>29,76%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>26,0%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>62,25%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>25,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>46,55%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>18,56%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>39,15%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>51,94%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>95,77%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-40,15; 47,29</t>
+          <t>-28,22; 204,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 79,8</t>
+          <t>40,03; 350,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,31; 74,91</t>
+          <t>33,59; 341,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>31,04; 148,75</t>
+          <t>52,46; 433,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,16; 37,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 28,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 59,86</t>
+          <t>-22,76; 57,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,76; 59,26</t>
+          <t>-24,1; 49,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-16,45; 26,75</t>
+          <t>-7,37; 71,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 32,58</t>
+          <t>19,65; 124,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,22; 55,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>24,54; 73,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-19,42; 64,55</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 88,87</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>18,06; 107,21</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>43,92; 171,86</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,47</t>
+          <t>10,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,06</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>-1,85</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,94</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>8,65</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-2,56</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-3,32</t>
-        </is>
-      </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,17</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-1,45</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-1,27</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,9</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>9,57</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 2,18</t>
+          <t>-4,23; 5,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 1,5</t>
+          <t>-4,7; 3,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 6,46</t>
+          <t>-1,51; 8,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,15; 15,24</t>
+          <t>4,52; 18,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,82; -0,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,42; -0,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 6,15</t>
+          <t>-10,07; 3,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,78; 13,58</t>
+          <t>-7,29; 4,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 0,26</t>
+          <t>-3,44; 8,22</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-6,03; -0,73</t>
+          <t>1,68; 14,95</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 5,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,88; 12,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-5,83; 2,72</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-5,48; 2,05</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-1,2; 6,56</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>4,85; 15,03</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-10,98%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-20,1%</t>
+          <t>-3,69%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29,28%</t>
+          <t>42,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>109,2%</t>
+          <t>125,84%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-21,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-23,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>-18,45%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>44,87%</t>
+          <t>-10,09%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-17,74%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-23,01%</t>
+          <t>47,13%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>63,5%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-10,56%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-9,25%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>21,1%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>69,66%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-42,04; 29,03</t>
+          <t>-37,55; 95,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-45,68; 19,3</t>
+          <t>-38,94; 68,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,86; 81,31</t>
+          <t>-13,77; 130,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>48,44; 188,25</t>
+          <t>37,94; 300,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,36; -0,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,65; -3,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 34,82</t>
+          <t>-45,07; 23,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,1; 76,08</t>
+          <t>-32,55; 31,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-33,32; 1,71</t>
+          <t>-14,98; 57,74</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-37,78; -4,77</t>
+          <t>5,38; 98,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 39,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>37,54; 95,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-36,04; 23,8</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-32,44; 18,0</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-8,43; 57,28</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>28,86; 130,27</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-1,29</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>3,75</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 5,11</t>
+          <t>-5,81; 5,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 2,93</t>
+          <t>-6,21; 4,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 2,42</t>
+          <t>-6,35; 3,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 7,75</t>
+          <t>-4,27; 6,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 2,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 6,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 6,34</t>
+          <t>-7,34; 2,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 7,99</t>
+          <t>-2,35; 7,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 3,1</t>
+          <t>-3,44; 5,89</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 3,99</t>
+          <t>0,85; 11,68</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 3,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 6,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-5,2; 2,28</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-2,82; 4,37</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-3,21; 3,32</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-0,1; 7,72</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-6,81%</t>
+          <t>-3,03%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-19,39%</t>
+          <t>-11,13%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-17,71%</t>
+          <t>-8,63%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-12,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>31,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>27,82%</t>
+          <t>-21,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>34,6%</t>
+          <t>26,02%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-9,37%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>60,38%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>21,7%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-13,48%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>9,86%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>3,37%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>39,36%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1790,99 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-47,6; 68,63</t>
+          <t>-50,36; 102,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-57,55; 41,75</t>
+          <t>-55,87; 88,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,8; 34,15</t>
+          <t>-49,74; 71,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-41,06; 100,82</t>
+          <t>-37,68; 124,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,96; 38,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 97,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 95,22</t>
+          <t>-55,15; 33,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 110,19</t>
+          <t>-17,06; 108,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-35,95; 42,16</t>
+          <t>-25,59; 86,12</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-24,63; 53,73</t>
+          <t>3,52; 149,9</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-21,9; 43,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-16,15; 73,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-44,0; 32,31</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-24,93; 58,9</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-26,84; 45,47</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-1,62; 104,27</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,09</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>10,18</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>—</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>12,78</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>11,05</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-1,11</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>7,14</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 2,43</t>
+          <t>-5,8; 4,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 3,2</t>
+          <t>-7,18; 4,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 5,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,58; 15,49</t>
+          <t>-2,94; 7,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 1,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 2,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,97; 7,88</t>
+          <t>-4,68; 4,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,34; 13,44</t>
+          <t>-4,67; 5,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 0,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 2,05</t>
+          <t>6,59; 18,96</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,88; 5,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,58; 13,63</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-3,94; 2,87</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-4,75; 3,01</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>3,44; 11,49</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-8,42%</t>
+          <t>-6,97%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>-14,89%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>99,59%</t>
+          <t>17,41%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-9,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-2,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>21,0%</t>
+          <t>-0,77%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>51,2%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-9,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-0,77%</t>
+          <t>60,51%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>68,64%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-3,51%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-6,36%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>40,75%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,509 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-28,94; 22,5</t>
+          <t>-35,85; 37,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,25; 28,51</t>
+          <t>-46,33; 36,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 47,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>61,45; 147,8</t>
+          <t>-18,48; 62,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,72; 7,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 12,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,64; 41,96</t>
+          <t>-20,43; 22,72</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>29,75; 72,15</t>
+          <t>-21,44; 30,41</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-20,73; 4,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 13,36</t>
+          <t>29,82; 95,27</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>5,39; 36,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>50,2; 88,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-20,28; 17,84</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-25,87; 18,22</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>17,03; 68,56</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,66</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>5,96</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,54</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3,38</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>11,14</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-1,11</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>2,7</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>8,62</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,65; 2,25</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,71; 3,04</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,99; 4,97</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2,52; 9,98</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-4,86; 1,36</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,92; 2,91</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 6,27</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>7,94; 15,21</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-3,07; 1,35</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-1,9; 2,19</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 4,86</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>6,06; 11,26</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-5,4%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1,0%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>16,79%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>49,04%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-7,78%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0,4%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>17,03%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>56,24%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-6,9%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>0,57%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>16,82%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>53,66%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-27,31; 20,61</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-20,86; 28,45</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-7,55; 46,18</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>18,08; 90,5</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-22,83; 7,66</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-13,31; 16,03</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>2,89; 34,4</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>36,27; 82,59</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-18,13; 8,81</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-11,24; 14,71</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>3,7; 32,4</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>36,31; 74,65</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
